--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.5347552470967</v>
+        <v>116.9259564744527</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.6101344743094</v>
+        <v>159.9832520574145</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.5266409385545</v>
+        <v>144.7146750190034</v>
       </c>
       <c r="AD2" t="n">
-        <v>92534.75524709669</v>
+        <v>116925.9564744527</v>
       </c>
       <c r="AE2" t="n">
-        <v>126610.1344743094</v>
+        <v>159983.2520574146</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.116024085276881e-06</v>
+        <v>7.615722192259064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.69212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>114526.6409385545</v>
+        <v>144714.6750190035</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.55478865832613</v>
+        <v>88.86064903111053</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.32670979856567</v>
+        <v>121.5830602594732</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.8969325827276</v>
+        <v>109.9793436312377</v>
       </c>
       <c r="AD3" t="n">
-        <v>64554.78865832614</v>
+        <v>88860.64903111053</v>
       </c>
       <c r="AE3" t="n">
-        <v>88326.70979856567</v>
+        <v>121583.0602594732</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.33933503443481e-06</v>
+        <v>9.879167728659232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.847222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>79896.9325827276</v>
+        <v>109979.3436312377</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.35070099691664</v>
+        <v>72.63164246516627</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.57449158897036</v>
+        <v>99.37781750272055</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.69369800576527</v>
+        <v>89.89333807792852</v>
       </c>
       <c r="AD4" t="n">
-        <v>60350.70099691664</v>
+        <v>72631.64246516627</v>
       </c>
       <c r="AE4" t="n">
-        <v>82574.49158897036</v>
+        <v>99377.81750272054</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.835003636081336e-06</v>
+        <v>1.079628441489736e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.604166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>74693.69800576527</v>
+        <v>89893.33807792852</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.7636953992197</v>
+        <v>71.04463686746934</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.40308051645685</v>
+        <v>97.20640643020705</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.72952335841718</v>
+        <v>87.92916343058043</v>
       </c>
       <c r="AD5" t="n">
-        <v>58763.6953992197</v>
+        <v>71044.63686746934</v>
       </c>
       <c r="AE5" t="n">
-        <v>80403.08051645686</v>
+        <v>97206.40643020705</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.032157686789224e-06</v>
+        <v>1.116107102648222e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.52025462962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>72729.52335841718</v>
+        <v>87929.16343058043</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.76060822264849</v>
+        <v>69.87095749030593</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.03061238838981</v>
+        <v>95.60052652729313</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.48804166222129</v>
+        <v>86.47654645173351</v>
       </c>
       <c r="AD6" t="n">
-        <v>57760.60822264849</v>
+        <v>69870.95749030593</v>
       </c>
       <c r="AE6" t="n">
-        <v>79030.61238838981</v>
+        <v>95600.52652729313</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.14207868522599e-06</v>
+        <v>1.136445365249371e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.473958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>71488.04166222129</v>
+        <v>86476.54645173351</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>56.37661804024591</v>
+        <v>68.48696730790334</v>
       </c>
       <c r="AB7" t="n">
-        <v>77.1369759634899</v>
+        <v>93.70689010239323</v>
       </c>
       <c r="AC7" t="n">
-        <v>69.77513123997782</v>
+        <v>84.76363602949003</v>
       </c>
       <c r="AD7" t="n">
-        <v>56376.61804024591</v>
+        <v>68486.96730790334</v>
       </c>
       <c r="AE7" t="n">
-        <v>77136.97596348991</v>
+        <v>93706.89010239323</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.277733696674705e-06</v>
+        <v>1.161545094011324e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>69775.13123997783</v>
+        <v>84763.63602949004</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>55.74034930553185</v>
+        <v>67.85069857318929</v>
       </c>
       <c r="AB8" t="n">
-        <v>76.2664050104591</v>
+        <v>92.83631914936244</v>
       </c>
       <c r="AC8" t="n">
-        <v>68.98764635684999</v>
+        <v>83.9761511463622</v>
       </c>
       <c r="AD8" t="n">
-        <v>55740.34930553185</v>
+        <v>67850.69857318929</v>
       </c>
       <c r="AE8" t="n">
-        <v>76266.4050104591</v>
+        <v>92836.31914936243</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.281882649792958e-06</v>
+        <v>1.16231275896378e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.418981481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>68987.64635684999</v>
+        <v>83976.1511463622</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>55.08987168413232</v>
+        <v>67.20022095178976</v>
       </c>
       <c r="AB9" t="n">
-        <v>75.37639283181339</v>
+        <v>91.94630697071672</v>
       </c>
       <c r="AC9" t="n">
-        <v>68.18257569139401</v>
+        <v>83.17108048090623</v>
       </c>
       <c r="AD9" t="n">
-        <v>55089.87168413232</v>
+        <v>67200.22095178976</v>
       </c>
       <c r="AE9" t="n">
-        <v>75376.39283181338</v>
+        <v>91946.30697071672</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.347688197352091e-06</v>
+        <v>1.174488508146408e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.392939814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>68182.57569139401</v>
+        <v>83171.08048090622</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.52124185303232</v>
+        <v>90.28504349430042</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.4362272159819</v>
+        <v>123.5319796038573</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.18266447820783</v>
+        <v>111.7422608487199</v>
       </c>
       <c r="AD2" t="n">
-        <v>78521.24185303232</v>
+        <v>90285.04349430042</v>
       </c>
       <c r="AE2" t="n">
-        <v>107436.2272159819</v>
+        <v>123531.9796038573</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.906229445262844e-06</v>
+        <v>9.352030512829479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>97182.66447820782</v>
+        <v>111742.2608487199</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.43529061881454</v>
+        <v>81.87737402967707</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.95374260771035</v>
+        <v>112.0282353221669</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.32306962903156</v>
+        <v>101.3364177756638</v>
       </c>
       <c r="AD3" t="n">
-        <v>58435.29061881454</v>
+        <v>81877.37402967707</v>
       </c>
       <c r="AE3" t="n">
-        <v>79953.74260771036</v>
+        <v>112028.2353221669</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.878565289146008e-06</v>
+        <v>1.120545269419385e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.673611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>72323.06962903157</v>
+        <v>101336.4177756638</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.0565403876296</v>
+        <v>66.73500117432611</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.33078748146538</v>
+        <v>91.3097727471432</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.14132285167567</v>
+        <v>82.59529619024897</v>
       </c>
       <c r="AD4" t="n">
-        <v>55056.5403876296</v>
+        <v>66735.00117432611</v>
       </c>
       <c r="AE4" t="n">
-        <v>75330.78748146538</v>
+        <v>91309.7727471432</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.337052308564348e-06</v>
+        <v>1.207939971260665e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.479745370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>68141.32285167566</v>
+        <v>82595.29619024898</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.377558017753</v>
+        <v>65.05601880444951</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.0335297315269</v>
+        <v>89.01251499720472</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.06331215716911</v>
+        <v>80.5172854957424</v>
       </c>
       <c r="AD5" t="n">
-        <v>53377.55801775301</v>
+        <v>65056.0188044495</v>
       </c>
       <c r="AE5" t="n">
-        <v>73033.5297315269</v>
+        <v>89012.51499720472</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.543341586053557e-06</v>
+        <v>1.247261891262008e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.401620370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>66063.3121571691</v>
+        <v>80517.2854957424</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>52.06402071939838</v>
+        <v>63.74248150609488</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.23629005074325</v>
+        <v>87.21527531642107</v>
       </c>
       <c r="AC6" t="n">
-        <v>64.43759850907713</v>
+        <v>78.89157184765043</v>
       </c>
       <c r="AD6" t="n">
-        <v>52064.02071939838</v>
+        <v>63742.48150609487</v>
       </c>
       <c r="AE6" t="n">
-        <v>71236.29005074325</v>
+        <v>87215.27531642107</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.689433729105566e-06</v>
+        <v>1.275109308402807e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.349537037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>64437.59850907713</v>
+        <v>78891.57184765043</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>51.69190616086928</v>
+        <v>63.37036694756577</v>
       </c>
       <c r="AB7" t="n">
-        <v>70.72714649522828</v>
+        <v>86.7061317609061</v>
       </c>
       <c r="AC7" t="n">
-        <v>63.97704689991288</v>
+        <v>78.43102023848618</v>
       </c>
       <c r="AD7" t="n">
-        <v>51691.90616086928</v>
+        <v>63370.36694756577</v>
       </c>
       <c r="AE7" t="n">
-        <v>70727.14649522828</v>
+        <v>86706.13176090611</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.724421955258596e-06</v>
+        <v>1.281778604289261e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.337962962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>63977.04689991288</v>
+        <v>78431.02023848618</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.01932805457756</v>
+        <v>56.39751919974772</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.96567487372001</v>
+        <v>77.16557385201435</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.95631923666506</v>
+        <v>69.8009997861589</v>
       </c>
       <c r="AD2" t="n">
-        <v>46019.32805457756</v>
+        <v>56397.51919974772</v>
       </c>
       <c r="AE2" t="n">
-        <v>62965.67487372001</v>
+        <v>77165.57385201435</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.049523868928732e-06</v>
+        <v>1.50136409597365e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.488425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>56956.31923666506</v>
+        <v>69800.99978615889</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.43835698008208</v>
+        <v>53.81654812525225</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.43427638518941</v>
+        <v>73.63417536348375</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.76195246352979</v>
+        <v>66.60663301302361</v>
       </c>
       <c r="AD3" t="n">
-        <v>43438.35698008208</v>
+        <v>53816.54812525224</v>
       </c>
       <c r="AE3" t="n">
-        <v>59434.27638518941</v>
+        <v>73634.17536348375</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.607020850419309e-06</v>
+        <v>1.620096363171553e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.306134259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>53761.95246352979</v>
+        <v>66606.63301302362</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.74605880299931</v>
+        <v>76.60431004082808</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.90597287989361</v>
+        <v>104.8133965414624</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.75705195944676</v>
+        <v>94.81015308209767</v>
       </c>
       <c r="AD2" t="n">
-        <v>54746.05880299932</v>
+        <v>76604.31004082809</v>
       </c>
       <c r="AE2" t="n">
-        <v>74905.97287989361</v>
+        <v>104813.3965414624</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.916729730931809e-06</v>
+        <v>1.201300695459656e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.835648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>67757.05195944676</v>
+        <v>94810.15308209768</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.08934299833067</v>
+        <v>58.97588769851029</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.7979606423757</v>
+        <v>80.69341138160965</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.51829562669919</v>
+        <v>72.99214545328181</v>
       </c>
       <c r="AD3" t="n">
-        <v>48089.34299833067</v>
+        <v>58975.88769851029</v>
       </c>
       <c r="AE3" t="n">
-        <v>65797.96064237569</v>
+        <v>80693.41138160965</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.036592249061572e-06</v>
+        <v>1.428671503832987e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.38425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>59518.29562669919</v>
+        <v>72992.1454532818</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.37627781444824</v>
+        <v>57.26282251462786</v>
       </c>
       <c r="AB4" t="n">
-        <v>63.45406928268683</v>
+        <v>78.3495200219208</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.39810196870611</v>
+        <v>70.87195179528872</v>
       </c>
       <c r="AD4" t="n">
-        <v>46376.27781444824</v>
+        <v>57262.82251462786</v>
       </c>
       <c r="AE4" t="n">
-        <v>63454.06928268683</v>
+        <v>78349.52002192079</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.317471330075735e-06</v>
+        <v>1.485699668158019e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.294560185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>57398.10196870611</v>
+        <v>70871.95179528873</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.46328129123376</v>
+        <v>51.4245182422099</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.73189069335826</v>
+        <v>70.36129454859629</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.3174786694046</v>
+        <v>63.6461113495909</v>
       </c>
       <c r="AD2" t="n">
-        <v>41463.28129123376</v>
+        <v>51424.5182422099</v>
       </c>
       <c r="AE2" t="n">
-        <v>56731.89069335826</v>
+        <v>70361.29454859628</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.679720070983294e-06</v>
+        <v>1.7101236564121e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.372685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>51317.4786694046</v>
+        <v>63646.11134959089</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.1065665026646</v>
+        <v>51.06780345364069</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.2438177824945</v>
+        <v>69.87322163773031</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.87598675213759</v>
+        <v>63.2046194323232</v>
       </c>
       <c r="AD3" t="n">
-        <v>41106.5665026646</v>
+        <v>51067.80345364069</v>
       </c>
       <c r="AE3" t="n">
-        <v>56243.81778249449</v>
+        <v>69873.22163773031</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.816916395013995e-06</v>
+        <v>1.740674597999694e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.329282407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>50875.98675213759</v>
+        <v>63204.6194323232</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.39943214131432</v>
+        <v>104.9833005959055</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.3742941452013</v>
+        <v>143.6427834116019</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.7448878268155</v>
+        <v>129.9337177667502</v>
       </c>
       <c r="AD2" t="n">
-        <v>81399.43214131432</v>
+        <v>104983.3005959055</v>
       </c>
       <c r="AE2" t="n">
-        <v>111374.2941452013</v>
+        <v>143642.7834116019</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.714900621118076e-06</v>
+        <v>8.914762795577264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.304398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>100744.8878268155</v>
+        <v>129933.7177667502</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.33101301427814</v>
+        <v>83.00013281488989</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.17930950566618</v>
+        <v>113.564443424716</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.43167014234085</v>
+        <v>102.7260123329878</v>
       </c>
       <c r="AD3" t="n">
-        <v>59331.01301427814</v>
+        <v>83000.13281488989</v>
       </c>
       <c r="AE3" t="n">
-        <v>81179.30950566618</v>
+        <v>113564.443424716</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.800829941973739e-06</v>
+        <v>1.096799850214342e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.685185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>73431.67014234085</v>
+        <v>102726.0123329878</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.90678655492207</v>
+        <v>68.86935773708538</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.86237591465358</v>
+        <v>94.23009355747496</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.4313000379079</v>
+        <v>85.2369056811396</v>
       </c>
       <c r="AD4" t="n">
-        <v>56906.78655492207</v>
+        <v>68869.35773708537</v>
       </c>
       <c r="AE4" t="n">
-        <v>77862.37591465359</v>
+        <v>94230.09355747496</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.142615817762909e-06</v>
+        <v>1.161423481853401e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.537615740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>70431.3000379079</v>
+        <v>85236.9056811396</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.68124284370871</v>
+        <v>66.47322182527982</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.81728882491393</v>
+        <v>90.95159469288843</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.67683178620547</v>
+        <v>82.27130214678611</v>
       </c>
       <c r="AD5" t="n">
-        <v>54681.24284370871</v>
+        <v>66473.22182527982</v>
       </c>
       <c r="AE5" t="n">
-        <v>74817.28882491394</v>
+        <v>90951.59469288844</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.422860852968112e-06</v>
+        <v>1.214411194941193e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.424768518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>67676.83178620547</v>
+        <v>82271.30214678611</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>53.81557901818152</v>
+        <v>65.60755799975264</v>
       </c>
       <c r="AB6" t="n">
-        <v>73.6328493884356</v>
+        <v>89.76715525641011</v>
       </c>
       <c r="AC6" t="n">
-        <v>66.60543358717305</v>
+        <v>81.19990394775371</v>
       </c>
       <c r="AD6" t="n">
-        <v>53815.57901818152</v>
+        <v>65607.55799975264</v>
       </c>
       <c r="AE6" t="n">
-        <v>73632.8493884356</v>
+        <v>89767.1552564101</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.479771324094316e-06</v>
+        <v>1.225171620058157e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.404513888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>66605.43358717306</v>
+        <v>81199.90394775372</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>52.64434376023532</v>
+        <v>64.43632274180642</v>
       </c>
       <c r="AB7" t="n">
-        <v>72.0303136372616</v>
+        <v>88.1646195052361</v>
       </c>
       <c r="AC7" t="n">
-        <v>65.15584159891753</v>
+        <v>79.75031195949818</v>
       </c>
       <c r="AD7" t="n">
-        <v>52644.34376023532</v>
+        <v>64436.32274180642</v>
       </c>
       <c r="AE7" t="n">
-        <v>72030.3136372616</v>
+        <v>88164.6195052361</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.609475510416955e-06</v>
+        <v>1.24969561637487e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.358217592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>65155.84159891753</v>
+        <v>79750.31195949818</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>52.5730857140446</v>
+        <v>64.3650646956157</v>
       </c>
       <c r="AB8" t="n">
-        <v>71.93281523478038</v>
+        <v>88.06712110275488</v>
       </c>
       <c r="AC8" t="n">
-        <v>65.06764830712922</v>
+        <v>79.66211866770988</v>
       </c>
       <c r="AD8" t="n">
-        <v>52573.0857140446</v>
+        <v>64365.0646956157</v>
       </c>
       <c r="AE8" t="n">
-        <v>71932.81523478038</v>
+        <v>88067.12110275489</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.621212958577327e-06</v>
+        <v>1.251914890429268e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.352430555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>65067.64830712922</v>
+        <v>79662.11866770987</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.69062652881386</v>
+        <v>49.40496416759501</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.30646624341834</v>
+        <v>67.59805156727191</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.12353332485513</v>
+        <v>61.14658840016735</v>
       </c>
       <c r="AD2" t="n">
-        <v>39690.62652881386</v>
+        <v>49404.96416759501</v>
       </c>
       <c r="AE2" t="n">
-        <v>54306.46624341834</v>
+        <v>67598.0515672719</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.866180368809788e-06</v>
+        <v>1.803374354875364e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.369791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>49123.53332485513</v>
+        <v>61146.58840016735</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.15485027041478</v>
+        <v>83.55023044562267</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.72544938727481</v>
+        <v>114.317111271679</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.30323105981631</v>
+        <v>103.4068466170128</v>
       </c>
       <c r="AD2" t="n">
-        <v>72154.85027041478</v>
+        <v>83550.23044562267</v>
       </c>
       <c r="AE2" t="n">
-        <v>98725.44938727481</v>
+        <v>114317.111271679</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.375288799012405e-06</v>
+        <v>1.053549175992691e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.012152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>89303.23105981632</v>
+        <v>103406.8466170128</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.47587650729541</v>
+        <v>64.95650802852388</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.16805342642438</v>
+        <v>88.87635996347775</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.18499709943082</v>
+        <v>80.39412490733949</v>
       </c>
       <c r="AD3" t="n">
-        <v>53475.87650729541</v>
+        <v>64956.50802852388</v>
       </c>
       <c r="AE3" t="n">
-        <v>73168.05342642438</v>
+        <v>88876.35996347775</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.379894831376671e-06</v>
+        <v>1.250450569977162e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.537615740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>66184.99709943081</v>
+        <v>80394.12490733949</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.01198247393524</v>
+        <v>62.3220217945715</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.79684491064955</v>
+        <v>85.27173967285606</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.13553199287958</v>
+        <v>77.13352451813722</v>
       </c>
       <c r="AD4" t="n">
-        <v>51011.98247393524</v>
+        <v>62322.0217945715</v>
       </c>
       <c r="AE4" t="n">
-        <v>69796.84491064955</v>
+        <v>85271.73967285606</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.755663499970935e-06</v>
+        <v>1.324100709711811e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.398726851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>63135.53199287958</v>
+        <v>77133.52451813722</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>49.03462936355579</v>
+        <v>60.34466868419205</v>
       </c>
       <c r="AB5" t="n">
-        <v>67.09134315036724</v>
+        <v>82.56623791257374</v>
       </c>
       <c r="AC5" t="n">
-        <v>60.68823952340217</v>
+        <v>74.68623204865982</v>
       </c>
       <c r="AD5" t="n">
-        <v>49034.6293635558</v>
+        <v>60344.66868419205</v>
       </c>
       <c r="AE5" t="n">
-        <v>67091.34315036723</v>
+        <v>82566.23791257374</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.023621881702018e-06</v>
+        <v>1.376620182214384e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.306134259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>60688.23952340218</v>
+        <v>74686.23204865982</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>49.20830259254601</v>
+        <v>60.51834191318228</v>
       </c>
       <c r="AB6" t="n">
-        <v>67.32897052419364</v>
+        <v>82.80386528640014</v>
       </c>
       <c r="AC6" t="n">
-        <v>60.90318807418278</v>
+        <v>74.90118059944041</v>
       </c>
       <c r="AD6" t="n">
-        <v>49208.30259254601</v>
+        <v>60518.34191318227</v>
       </c>
       <c r="AE6" t="n">
-        <v>67328.97052419363</v>
+        <v>82803.86528640013</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.986845475435606e-06</v>
+        <v>1.369412057410918e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.317708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>60903.18807418278</v>
+        <v>74901.18059944041</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.89382755976825</v>
+        <v>87.53979433432372</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.8412830666019</v>
+        <v>119.7758085913338</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.93081675290773</v>
+        <v>108.3445735258113</v>
       </c>
       <c r="AD2" t="n">
-        <v>75893.82755976825</v>
+        <v>87539.79433432371</v>
       </c>
       <c r="AE2" t="n">
-        <v>103841.2830666019</v>
+        <v>119775.8085913338</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.096142329980945e-06</v>
+        <v>9.798368560281019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.113425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>93930.81675290773</v>
+        <v>108344.5735258113</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.94783446322583</v>
+        <v>68.67905258380188</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.91853947370066</v>
+        <v>93.96970965108177</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.4821034257056</v>
+        <v>85.00137244932139</v>
       </c>
       <c r="AD3" t="n">
-        <v>56947.83446322583</v>
+        <v>68679.05258380188</v>
       </c>
       <c r="AE3" t="n">
-        <v>77918.53947370066</v>
+        <v>93969.70965108176</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.018919345219428e-06</v>
+        <v>1.157259477077552e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.63599537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>70482.1034257056</v>
+        <v>85001.3724493214</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.85008710413454</v>
+        <v>65.41071302411838</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.68006487402579</v>
+        <v>89.49782327656003</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.64814289308589</v>
+        <v>80.95627663405064</v>
       </c>
       <c r="AD4" t="n">
-        <v>53850.08710413454</v>
+        <v>65410.71302411838</v>
       </c>
       <c r="AE4" t="n">
-        <v>73680.06487402579</v>
+        <v>89497.82327656003</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.447153694995481e-06</v>
+        <v>1.239596227458183e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.462384259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>66648.1428930859</v>
+        <v>80956.27663405064</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.24943810025295</v>
+        <v>63.8100640202368</v>
       </c>
       <c r="AB5" t="n">
-        <v>71.48998629126586</v>
+        <v>87.3077446938001</v>
       </c>
       <c r="AC5" t="n">
-        <v>64.66708233646926</v>
+        <v>78.97521607743401</v>
       </c>
       <c r="AD5" t="n">
-        <v>52249.43810025296</v>
+        <v>63810.0640202368</v>
       </c>
       <c r="AE5" t="n">
-        <v>71489.98629126587</v>
+        <v>87307.74469380011</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.654250634641275e-06</v>
+        <v>1.279414819855373e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.38425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>64667.08233646927</v>
+        <v>78975.21607743402</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>51.00261687724763</v>
+        <v>62.56324279723146</v>
       </c>
       <c r="AB6" t="n">
-        <v>69.78403048808057</v>
+        <v>85.60178889061481</v>
       </c>
       <c r="AC6" t="n">
-        <v>63.12394056081544</v>
+        <v>77.43207430178019</v>
       </c>
       <c r="AD6" t="n">
-        <v>51002.61687724762</v>
+        <v>62563.24279723146</v>
       </c>
       <c r="AE6" t="n">
-        <v>69784.03048808058</v>
+        <v>85601.78889061481</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.784783133676496e-06</v>
+        <v>1.304512343665042e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.337962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>63123.94056081544</v>
+        <v>77432.07430178019</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>50.92870668320615</v>
+        <v>62.48933260318999</v>
       </c>
       <c r="AB7" t="n">
-        <v>69.68290329990546</v>
+        <v>85.5006617024397</v>
       </c>
       <c r="AC7" t="n">
-        <v>63.03246480954682</v>
+        <v>77.34059855051157</v>
       </c>
       <c r="AD7" t="n">
-        <v>50928.70668320615</v>
+        <v>62489.33260318999</v>
       </c>
       <c r="AE7" t="n">
-        <v>69682.90329990546</v>
+        <v>85500.6617024397</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.800907736498495e-06</v>
+        <v>1.307612626018001e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.332175925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>63032.46480954681</v>
+        <v>77340.59855051157</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.51285267749169</v>
+        <v>112.6985635562304</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.1071899447599</v>
+        <v>154.1991465672927</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.5488897114723</v>
+        <v>139.4825964388139</v>
       </c>
       <c r="AD2" t="n">
-        <v>88512.8526774917</v>
+        <v>112698.5635562304</v>
       </c>
       <c r="AE2" t="n">
-        <v>121107.1899447599</v>
+        <v>154199.1465672927</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.310918706609281e-06</v>
+        <v>8.030914582644023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.55324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>109548.8897114723</v>
+        <v>139482.5964388139</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.23375133691796</v>
+        <v>86.33412136108511</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.15096413847679</v>
+        <v>118.126153638812</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.02427563124957</v>
+        <v>106.8523593266523</v>
       </c>
       <c r="AD3" t="n">
-        <v>62233.75133691797</v>
+        <v>86334.12136108511</v>
       </c>
       <c r="AE3" t="n">
-        <v>85150.96413847679</v>
+        <v>118126.153638812</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.54183838003503e-06</v>
+        <v>1.032402457338044e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.763310185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>77024.27563124956</v>
+        <v>106852.3593266524</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.94065335827964</v>
+        <v>71.11884965222065</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.6452022028767</v>
+        <v>97.30794763634074</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.94853729090514</v>
+        <v>88.02101368651473</v>
       </c>
       <c r="AD4" t="n">
-        <v>58940.65335827964</v>
+        <v>71118.84965222064</v>
       </c>
       <c r="AE4" t="n">
-        <v>80645.20220287671</v>
+        <v>97307.94763634074</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.965979461382316e-06</v>
+        <v>1.111416723834604e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.566550925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>72948.53729090514</v>
+        <v>88021.01368651474</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.02876919644658</v>
+        <v>70.20696549038757</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.39752206316737</v>
+        <v>96.06026749663138</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.81993399259916</v>
+        <v>86.89241038820876</v>
       </c>
       <c r="AD5" t="n">
-        <v>58028.76919644658</v>
+        <v>70206.96549038758</v>
       </c>
       <c r="AE5" t="n">
-        <v>79397.52206316737</v>
+        <v>96060.26749663138</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.072649990453057e-06</v>
+        <v>1.131288634342663e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.523148148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>71819.93399259917</v>
+        <v>86892.41038820877</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.50574691847901</v>
+        <v>68.51335101182781</v>
       </c>
       <c r="AB6" t="n">
-        <v>77.31365579145239</v>
+        <v>93.74298945006956</v>
       </c>
       <c r="AC6" t="n">
-        <v>69.93494899313131</v>
+        <v>84.79629010608988</v>
       </c>
       <c r="AD6" t="n">
-        <v>56505.74691847901</v>
+        <v>68513.35101182781</v>
       </c>
       <c r="AE6" t="n">
-        <v>77313.65579145239</v>
+        <v>93742.98945006955</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.240675925574911e-06</v>
+        <v>1.162590591639229e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.453703703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>69934.94899313131</v>
+        <v>84796.29010608989</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>55.41353322887973</v>
+        <v>67.42113732222853</v>
       </c>
       <c r="AB7" t="n">
-        <v>75.81924083627615</v>
+        <v>92.24857449489332</v>
       </c>
       <c r="AC7" t="n">
-        <v>68.58315890385208</v>
+        <v>83.44450001681064</v>
       </c>
       <c r="AD7" t="n">
-        <v>55413.53322887973</v>
+        <v>67421.13732222853</v>
       </c>
       <c r="AE7" t="n">
-        <v>75819.24083627615</v>
+        <v>92248.57449489331</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.340729176167319e-06</v>
+        <v>1.181229753356465e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.416087962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>68583.15890385208</v>
+        <v>83444.50001681063</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>54.23257608744107</v>
+        <v>66.24018018078988</v>
       </c>
       <c r="AB8" t="n">
-        <v>74.20340317520858</v>
+        <v>90.63273683382572</v>
       </c>
       <c r="AC8" t="n">
-        <v>67.12153452131386</v>
+        <v>81.98287563427242</v>
       </c>
       <c r="AD8" t="n">
-        <v>54232.57608744108</v>
+        <v>66240.18018078987</v>
       </c>
       <c r="AE8" t="n">
-        <v>74203.40317520857</v>
+        <v>90632.73683382572</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.44978192549026e-06</v>
+        <v>1.201545453429221e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.375578703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>67121.53452131386</v>
+        <v>81982.87563427242</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>54.29817667846794</v>
+        <v>66.30578077181674</v>
       </c>
       <c r="AB9" t="n">
-        <v>74.29316079794529</v>
+        <v>90.72249445656244</v>
       </c>
       <c r="AC9" t="n">
-        <v>67.20272580251225</v>
+        <v>82.0640669154708</v>
       </c>
       <c r="AD9" t="n">
-        <v>54298.17667846794</v>
+        <v>66305.78077181675</v>
       </c>
       <c r="AE9" t="n">
-        <v>74293.1607979453</v>
+        <v>90722.49445656245</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.451317134097233e-06</v>
+        <v>1.201831451148691e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.375578703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>67202.72580251224</v>
+        <v>82064.0669154708</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.81890217514949</v>
+        <v>79.97452829879566</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.11037274594929</v>
+        <v>109.4246778455473</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.56018980319971</v>
+        <v>98.98134017049614</v>
       </c>
       <c r="AD2" t="n">
-        <v>57818.90217514949</v>
+        <v>79974.52829879566</v>
       </c>
       <c r="AE2" t="n">
-        <v>79110.37274594929</v>
+        <v>109424.6778455473</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.607009047474035e-06</v>
+        <v>1.123923480492294e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.954282407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>71560.18980319971</v>
+        <v>98981.34017049614</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.31106680189409</v>
+        <v>60.34629894498241</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.46957704906055</v>
+        <v>82.56846850730912</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.03037530965895</v>
+        <v>74.68824975856433</v>
       </c>
       <c r="AD3" t="n">
-        <v>49311.06680189409</v>
+        <v>60346.29894498241</v>
       </c>
       <c r="AE3" t="n">
-        <v>67469.57704906055</v>
+        <v>82568.46850730912</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.918860055527315e-06</v>
+        <v>1.386883668067306e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>61030.37530965895</v>
+        <v>74688.24975856433</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.45019210366306</v>
+        <v>58.48542424675139</v>
       </c>
       <c r="AB4" t="n">
-        <v>64.92344619094449</v>
+        <v>80.02233764919306</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.72724360712357</v>
+        <v>72.38511805602894</v>
       </c>
       <c r="AD4" t="n">
-        <v>47450.19210366307</v>
+        <v>58485.42424675138</v>
       </c>
       <c r="AE4" t="n">
-        <v>64923.44619094449</v>
+        <v>80022.33764919307</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.206418071393704e-06</v>
+        <v>1.444524596287604e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.300347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>58727.24360712357</v>
+        <v>72385.11805602895</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.2408178203446</v>
+        <v>58.2760499634329</v>
       </c>
       <c r="AB5" t="n">
-        <v>64.63697105956685</v>
+        <v>79.73586251781541</v>
       </c>
       <c r="AC5" t="n">
-        <v>58.46810926021413</v>
+        <v>72.12598370911952</v>
       </c>
       <c r="AD5" t="n">
-        <v>47240.81782034459</v>
+        <v>58276.0499634329</v>
       </c>
       <c r="AE5" t="n">
-        <v>64636.97105956684</v>
+        <v>79735.8625178154</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.236256296103201e-06</v>
+        <v>1.450505660538306e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.288773148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>58468.10926021413</v>
+        <v>72125.98370911952</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.65630396273793</v>
+        <v>59.38689382418146</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.57370164642977</v>
+        <v>81.2557680950632</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.22000099808592</v>
+        <v>73.50083163127614</v>
       </c>
       <c r="AD2" t="n">
-        <v>48656.30396273793</v>
+        <v>59386.89382418145</v>
       </c>
       <c r="AE2" t="n">
-        <v>66573.70164642976</v>
+        <v>81255.76809506321</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.670599425293388e-06</v>
+        <v>1.395531116310654e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.586805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>60220.00099808592</v>
+        <v>73500.83163127615</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.47362341515795</v>
+        <v>55.03362107600928</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.85077359439121</v>
+        <v>75.29942826817779</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.04326116715214</v>
+        <v>68.11295651769132</v>
       </c>
       <c r="AD3" t="n">
-        <v>44473.62341515796</v>
+        <v>55033.62107600928</v>
       </c>
       <c r="AE3" t="n">
-        <v>60850.7735943912</v>
+        <v>75299.4282681778</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.523522199370386e-06</v>
+        <v>1.573967894648922e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.294560185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>55043.26116715214</v>
+        <v>68112.95651769132</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>44.56959381772601</v>
+        <v>55.12959147857733</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.98208453310009</v>
+        <v>75.43073920688667</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.16203997416675</v>
+        <v>68.23173532470592</v>
       </c>
       <c r="AD4" t="n">
-        <v>44569.59381772601</v>
+        <v>55129.59147857733</v>
       </c>
       <c r="AE4" t="n">
-        <v>60982.08453310009</v>
+        <v>75430.73920688668</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.503059688948031e-06</v>
+        <v>1.569687009500288e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.300347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>55162.03997416675</v>
+        <v>68231.73532470592</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.45006090688666</v>
+        <v>53.63019476375994</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.45029021418423</v>
+        <v>73.37919847296003</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.7764379551609</v>
+        <v>66.37599075906907</v>
       </c>
       <c r="AD2" t="n">
-        <v>43450.06090688665</v>
+        <v>53630.19476375994</v>
       </c>
       <c r="AE2" t="n">
-        <v>59450.29021418423</v>
+        <v>73379.19847296002</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.448253403800217e-06</v>
+        <v>1.619142863720683e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.398726851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>53776.4379551609</v>
+        <v>66375.99075906907</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.23208834463322</v>
+        <v>52.41222220150649</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.78380642135276</v>
+        <v>71.71271468012856</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.26900103659204</v>
+        <v>64.86855384050023</v>
       </c>
       <c r="AD3" t="n">
-        <v>42232.08834463322</v>
+        <v>52412.2222015065</v>
       </c>
       <c r="AE3" t="n">
-        <v>57783.80642135275</v>
+        <v>71712.71468012856</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.751263745932745e-06</v>
+        <v>1.685012941777791e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.303240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>52269.00103659205</v>
+        <v>64868.55384050022</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.19974535771113</v>
+        <v>47.62687135273385</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.2665768520902</v>
+        <v>65.16518653406139</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.27832811402654</v>
+        <v>58.94591259117816</v>
       </c>
       <c r="AD2" t="n">
-        <v>38199.74535771113</v>
+        <v>47626.87135273385</v>
       </c>
       <c r="AE2" t="n">
-        <v>52266.5768520902</v>
+        <v>65165.18653406139</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.835809655580184e-06</v>
+        <v>1.863768454683186e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.445023148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>47278.32811402654</v>
+        <v>58945.91259117816</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.87669993291023</v>
+        <v>85.40004574261469</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.0813600581458</v>
+        <v>116.8481101691135</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.43429692280154</v>
+        <v>105.6962905319562</v>
       </c>
       <c r="AD2" t="n">
-        <v>73876.69993291023</v>
+        <v>85400.04574261469</v>
       </c>
       <c r="AE2" t="n">
-        <v>101081.3600581458</v>
+        <v>116848.1101691135</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.245671608433025e-06</v>
+        <v>1.01796359413947e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.055555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>91434.29692280154</v>
+        <v>105696.2905319562</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.10122980580756</v>
+        <v>66.70982696153261</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.3919335149744</v>
+        <v>91.27532827859125</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.19663319356562</v>
+        <v>82.5641390534325</v>
       </c>
       <c r="AD3" t="n">
-        <v>55101.22980580755</v>
+        <v>66709.82696153261</v>
       </c>
       <c r="AE3" t="n">
-        <v>75391.9335149744</v>
+        <v>91275.32827859125</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.204969393149264e-06</v>
+        <v>1.204122830491568e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.583912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>68196.63319356562</v>
+        <v>82564.1390534325</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.06125460849122</v>
+        <v>63.49925956362407</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.23250533576787</v>
+        <v>86.88248832453787</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.43417500198713</v>
+        <v>78.59054557920297</v>
       </c>
       <c r="AD4" t="n">
-        <v>52061.25460849122</v>
+        <v>63499.25956362407</v>
       </c>
       <c r="AE4" t="n">
-        <v>71232.50533576787</v>
+        <v>86882.48832453787</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.656035443556027e-06</v>
+        <v>1.291655724683457e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.407407407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>64434.17500198713</v>
+        <v>78590.54557920297</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.45115770238693</v>
+        <v>61.88916265751978</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.0294997163748</v>
+        <v>84.67948270514479</v>
       </c>
       <c r="AC5" t="n">
-        <v>62.44142114697043</v>
+        <v>76.59779172418628</v>
       </c>
       <c r="AD5" t="n">
-        <v>50451.15770238693</v>
+        <v>61889.16265751977</v>
       </c>
       <c r="AE5" t="n">
-        <v>69029.4997163748</v>
+        <v>84679.48270514479</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.869520468518286e-06</v>
+        <v>1.333084163123287e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.332175925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>62441.42114697042</v>
+        <v>76597.79172418627</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>50.04433387379233</v>
+        <v>61.48233882892518</v>
       </c>
       <c r="AB6" t="n">
-        <v>68.47286540629133</v>
+        <v>84.12284839506133</v>
       </c>
       <c r="AC6" t="n">
-        <v>61.93791123419999</v>
+        <v>76.09428181141583</v>
       </c>
       <c r="AD6" t="n">
-        <v>50044.33387379233</v>
+        <v>61482.33882892518</v>
       </c>
       <c r="AE6" t="n">
-        <v>68472.86540629133</v>
+        <v>84122.84839506133</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.894447365568887e-06</v>
+        <v>1.337921422411799e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.32349537037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>61937.91123419999</v>
+        <v>76094.28181141583</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.57401043905303</v>
+        <v>108.3770796467094</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.7178922246753</v>
+        <v>148.2863016318744</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.673939001864</v>
+        <v>134.1340651253001</v>
       </c>
       <c r="AD2" t="n">
-        <v>84574.01043905303</v>
+        <v>108377.0796467094</v>
       </c>
       <c r="AE2" t="n">
-        <v>115717.8922246753</v>
+        <v>148286.3016318744</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.524793625965012e-06</v>
+        <v>8.490287598694835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.414351851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>104673.939001864</v>
+        <v>134134.0651253001</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.67951293045984</v>
+        <v>84.56783348413684</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.02438658260266</v>
+        <v>115.7094406424509</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.10065565263704</v>
+        <v>104.6662940267853</v>
       </c>
       <c r="AD3" t="n">
-        <v>60679.51293045984</v>
+        <v>84567.83348413683</v>
       </c>
       <c r="AE3" t="n">
-        <v>83024.38658260266</v>
+        <v>115709.4406424509</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.678731298271916e-06</v>
+        <v>1.065552728004375e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.719907407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>75100.65565263704</v>
+        <v>104666.2940267853</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.43154313966802</v>
+        <v>70.50371469836394</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.94861514141495</v>
+        <v>96.46629285463554</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.31843152092299</v>
+        <v>87.25968525590532</v>
       </c>
       <c r="AD4" t="n">
-        <v>58431.54313966802</v>
+        <v>70503.71469836394</v>
       </c>
       <c r="AE4" t="n">
-        <v>79948.61514141495</v>
+        <v>96466.29285463554</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.991422892516242e-06</v>
+        <v>1.124225935763381e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>72318.43152092298</v>
+        <v>87259.68525590532</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.37020500144548</v>
+        <v>68.27178435954923</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.12820136087987</v>
+        <v>93.41246729925359</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.76719407312567</v>
+        <v>84.49731252545696</v>
       </c>
       <c r="AD5" t="n">
-        <v>56370.20500144549</v>
+        <v>68271.78435954923</v>
       </c>
       <c r="AE5" t="n">
-        <v>77128.20136087987</v>
+        <v>93412.46729925359</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.247800107803968e-06</v>
+        <v>1.172332357215499e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.471064814814814</v>
       </c>
       <c r="AH5" t="n">
-        <v>69767.19407312566</v>
+        <v>84497.31252545696</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.75274619222699</v>
+        <v>66.65432555033071</v>
       </c>
       <c r="AB6" t="n">
-        <v>74.9151228608617</v>
+        <v>91.19938879923542</v>
       </c>
       <c r="AC6" t="n">
-        <v>67.76532867907333</v>
+        <v>82.49544713140462</v>
       </c>
       <c r="AD6" t="n">
-        <v>54752.74619222699</v>
+        <v>66654.32555033072</v>
       </c>
       <c r="AE6" t="n">
-        <v>74915.12286086169</v>
+        <v>91199.38879923543</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.43158248386802e-06</v>
+        <v>1.206817139447363e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.401620370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>67765.32867907334</v>
+        <v>82495.44713140462</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>53.69189776676477</v>
+        <v>65.5934771248685</v>
       </c>
       <c r="AB7" t="n">
-        <v>73.46362324381558</v>
+        <v>89.7478891821893</v>
       </c>
       <c r="AC7" t="n">
-        <v>66.45235814828511</v>
+        <v>81.18247660061641</v>
       </c>
       <c r="AD7" t="n">
-        <v>53691.89776676477</v>
+        <v>65593.4771248685</v>
       </c>
       <c r="AE7" t="n">
-        <v>73463.62324381557</v>
+        <v>89747.88918218929</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.512878028086885e-06</v>
+        <v>1.222071372191809e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.372685185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>66452.35814828512</v>
+        <v>81182.47660061641</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>53.24748261485064</v>
+        <v>65.14906197295437</v>
       </c>
       <c r="AB8" t="n">
-        <v>72.85555482675419</v>
+        <v>89.13982076512792</v>
       </c>
       <c r="AC8" t="n">
-        <v>65.9023229275185</v>
+        <v>80.63244137984979</v>
       </c>
       <c r="AD8" t="n">
-        <v>53247.48261485064</v>
+        <v>65149.06197295437</v>
       </c>
       <c r="AE8" t="n">
-        <v>72855.55482675419</v>
+        <v>89139.82076512792</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.549068690582216e-06</v>
+        <v>1.228862159979553e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.358217592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>65902.3229275185</v>
+        <v>80632.4413798498</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.4913349158296</v>
+        <v>54.72637998772711</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.92905431576983</v>
+        <v>74.87904745667014</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.16389544783215</v>
+        <v>67.73269626082566</v>
       </c>
       <c r="AD2" t="n">
-        <v>36491.3349158296</v>
+        <v>54726.37998772711</v>
       </c>
       <c r="AE2" t="n">
-        <v>49929.05431576983</v>
+        <v>74879.04745667013</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.48758116737271e-06</v>
+        <v>1.872587227057104e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.650462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>45163.89544783215</v>
+        <v>67732.69626082566</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.3044043135295</v>
+        <v>72.84695740764343</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.19694937232329</v>
+        <v>99.6724209060425</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.49745104628144</v>
+        <v>90.15982494591599</v>
       </c>
       <c r="AD2" t="n">
-        <v>51304.4043135295</v>
+        <v>72846.95740764344</v>
       </c>
       <c r="AE2" t="n">
-        <v>70196.94937232329</v>
+        <v>99672.42090604251</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.326754667340507e-06</v>
+        <v>1.302858123003253e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.688078703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>63497.45104628144</v>
+        <v>90159.82494591599</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.08411489807746</v>
+        <v>56.81281052639965</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.05431909119034</v>
+        <v>77.73379376649952</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.03650337443298</v>
+        <v>70.31498958950743</v>
       </c>
       <c r="AD3" t="n">
-        <v>46084.11489807746</v>
+        <v>56812.81052639965</v>
       </c>
       <c r="AE3" t="n">
-        <v>63054.31909119034</v>
+        <v>77733.79376649951</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.315743644934535e-06</v>
+        <v>1.50651898718541e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.326388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>57036.50337443298</v>
+        <v>70314.98958950743</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.47774983775408</v>
+        <v>56.20644546607628</v>
       </c>
       <c r="AB4" t="n">
-        <v>62.22466366471784</v>
+        <v>76.90413834002702</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.28602909743406</v>
+        <v>69.5645153125085</v>
       </c>
       <c r="AD4" t="n">
-        <v>45477.74983775408</v>
+        <v>56206.44546607628</v>
       </c>
       <c r="AE4" t="n">
-        <v>62224.66366471784</v>
+        <v>76904.13834002701</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.415977028207305e-06</v>
+        <v>1.527159881997904e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.294560185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>56286.02909743406</v>
+        <v>69564.51531250851</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.09291311049566</v>
+        <v>82.3543099478201</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.27246011571317</v>
+        <v>112.6808000862976</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.9889130450488</v>
+        <v>101.9267026745865</v>
       </c>
       <c r="AD2" t="n">
-        <v>71092.91311049566</v>
+        <v>82354.3099478201</v>
       </c>
       <c r="AE2" t="n">
-        <v>97272.46011571317</v>
+        <v>112680.8000862976</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.439557859915139e-06</v>
+        <v>1.077676560718727e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.012152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>87988.9130450488</v>
+        <v>101926.7026745865</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.47192039158584</v>
+        <v>62.64797637433865</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.42615226060765</v>
+        <v>85.71772510899441</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.70477913259629</v>
+        <v>77.53694573019517</v>
       </c>
       <c r="AD3" t="n">
-        <v>51471.92039158584</v>
+        <v>62647.97637433866</v>
       </c>
       <c r="AE3" t="n">
-        <v>70426.15226060765</v>
+        <v>85717.72510899442</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.632406118566733e-06</v>
+        <v>1.314001762499562e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.468171296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>63704.77913259629</v>
+        <v>77536.94573019518</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.1120948713845</v>
+        <v>60.28815085413733</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.19733487571543</v>
+        <v>82.48890772410221</v>
       </c>
       <c r="AC4" t="n">
-        <v>60.78411554724349</v>
+        <v>74.61628214484239</v>
       </c>
       <c r="AD4" t="n">
-        <v>49112.0948713845</v>
+        <v>60288.15085413733</v>
       </c>
       <c r="AE4" t="n">
-        <v>67197.33487571543</v>
+        <v>82488.9077241022</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.995099909382365e-06</v>
+        <v>1.385858080080184e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.340856481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>60784.11554724349</v>
+        <v>74616.28214484239</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>48.18835184984765</v>
+        <v>59.36440783260048</v>
       </c>
       <c r="AB5" t="n">
-        <v>65.9334289209834</v>
+        <v>81.22500176937019</v>
       </c>
       <c r="AC5" t="n">
-        <v>59.64083500292755</v>
+        <v>73.47300160052644</v>
       </c>
       <c r="AD5" t="n">
-        <v>48188.35184984765</v>
+        <v>59364.40783260047</v>
       </c>
       <c r="AE5" t="n">
-        <v>65933.42892098341</v>
+        <v>81225.0017693702</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.120242851250866e-06</v>
+        <v>1.410651200893347e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.300347222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>59640.83500292755</v>
+        <v>73473.00160052645</v>
       </c>
     </row>
   </sheetData>
